--- a/excel/collective/zestawy_dla_uczniow/zestaw_025.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>ZESTAW ZADAŃ NR 25 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Maja Kubiak</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
-  </si>
-  <si>
-    <t>Natalia Sikorska</t>
-  </si>
-  <si>
-    <t>Oliwia Malinowska</t>
-  </si>
-  <si>
-    <t>Emilia Zawadzka</t>
+    <t>Filip Wojciechowski</t>
+  </si>
+  <si>
+    <t>Hanna Król</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Maciejewska</t>
+  </si>
+  <si>
+    <t>Hanna Urbaniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>4,80</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>25,00</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,70</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,40</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,90</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>6,30</t>
+    <t>5,20</t>
   </si>
   <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>1,60</t>
+    <t>8,40</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>16,18</t>
+    <t>14,02</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>21,29</t>
+    <t>19,36</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>22,65</t>
+    <t>29,07</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>4,72</t>
+    <t>19,17</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>22,99</t>
+    <t>29,41</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>8,72</t>
-  </si>
-  <si>
-    <t>26,35</t>
-  </si>
-  <si>
-    <t>10,88</t>
-  </si>
-  <si>
-    <t>9,56</t>
-  </si>
-  <si>
-    <t>26,50</t>
+    <t>4,13</t>
+  </si>
+  <si>
+    <t>30,26</t>
+  </si>
+  <si>
+    <t>13,63</t>
+  </si>
+  <si>
+    <t>16,00</t>
+  </si>
+  <si>
+    <t>4,71</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>4,31</t>
-  </si>
-  <si>
-    <t>10,47</t>
-  </si>
-  <si>
-    <t>3,39</t>
-  </si>
-  <si>
-    <t>3,43</t>
-  </si>
-  <si>
-    <t>14,37</t>
+    <t>3,02</t>
+  </si>
+  <si>
+    <t>27,21</t>
+  </si>
+  <si>
+    <t>18,04</t>
+  </si>
+  <si>
+    <t>19,98</t>
+  </si>
+  <si>
+    <t>16,14</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,31 +340,43 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kaczmarek</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
   </si>
   <si>
     <t>Lena</t>
   </si>
   <si>
-    <t>Borkowska</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -400,121 +412,118 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Antoni Wiśniewski</t>
-  </si>
-  <si>
-    <t>02.07.1990</t>
-  </si>
-  <si>
-    <t>6 758,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kaczmarek</t>
-  </si>
-  <si>
-    <t>09.10.1990</t>
-  </si>
-  <si>
-    <t>4 082,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Mazur</t>
-  </si>
-  <si>
-    <t>02.11.1995</t>
-  </si>
-  <si>
-    <t>10 050,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>05.11.1996</t>
-  </si>
-  <si>
-    <t>10 971,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Urbaniak</t>
-  </si>
-  <si>
-    <t>08.05.2002</t>
-  </si>
-  <si>
-    <t>6 814,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Sadowska</t>
-  </si>
-  <si>
-    <t>10.05.1976</t>
-  </si>
-  <si>
-    <t>4 185,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Jaworska</t>
-  </si>
-  <si>
-    <t>09.10.1999</t>
-  </si>
-  <si>
-    <t>6 690,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Piekarska</t>
-  </si>
-  <si>
-    <t>15.07.1998</t>
-  </si>
-  <si>
-    <t>13 532,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Wojciechowski</t>
-  </si>
-  <si>
-    <t>18.10.1993</t>
-  </si>
-  <si>
-    <t>4 320,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>14.01.1975</t>
-  </si>
-  <si>
-    <t>14 926,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Krawczyk</t>
-  </si>
-  <si>
-    <t>14.12.1998</t>
-  </si>
-  <si>
-    <t>2 549,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Malinowska</t>
-  </si>
-  <si>
-    <t>14.05.1984</t>
-  </si>
-  <si>
-    <t>11 221,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>21.08.1978</t>
-  </si>
-  <si>
-    <t>13 203,00 zł</t>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>19.02.1998</t>
+  </si>
+  <si>
+    <t>5 152,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>02.06.1999</t>
+  </si>
+  <si>
+    <t>6 911,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>18.02.1983</t>
+  </si>
+  <si>
+    <t>11 559,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>27.09.1980</t>
+  </si>
+  <si>
+    <t>8 690,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>20.09.1985</t>
+  </si>
+  <si>
+    <t>11 795,00 zł</t>
+  </si>
+  <si>
+    <t>27.04.2001</t>
+  </si>
+  <si>
+    <t>9 848,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>24.03.1988</t>
+  </si>
+  <si>
+    <t>9 646,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>08.12.2001</t>
+  </si>
+  <si>
+    <t>14 636,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Sadowska</t>
+  </si>
+  <si>
+    <t>06.11.1996</t>
+  </si>
+  <si>
+    <t>4 476,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>12.03.1984</t>
+  </si>
+  <si>
+    <t>3 023,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Zawadzka</t>
+  </si>
+  <si>
+    <t>19.07.1989</t>
+  </si>
+  <si>
+    <t>5 260,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Rogalska</t>
+  </si>
+  <si>
+    <t>06.01.1978</t>
+  </si>
+  <si>
+    <t>9 451,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Jaworska</t>
+  </si>
+  <si>
+    <t>10.12.1993</t>
+  </si>
+  <si>
+    <t>4 093,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,310 +595,346 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>517,00 zł</t>
+  </si>
+  <si>
+    <t>713,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 107,00 zł</t>
+  </si>
+  <si>
+    <t>1 306,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 300,00 zł</t>
+  </si>
+  <si>
+    <t>1 521,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>661,00 zł</t>
+  </si>
+  <si>
+    <t>754,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 414,00 zł</t>
+  </si>
+  <si>
+    <t>1 725,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 112,00 zł</t>
+  </si>
+  <si>
+    <t>1 557,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 385,00 zł</t>
+  </si>
+  <si>
+    <t>1 731,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>640,00 zł</t>
+  </si>
+  <si>
+    <t>896,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>879,00 zł</t>
+  </si>
+  <si>
+    <t>1 213,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>806,00 zł</t>
+  </si>
+  <si>
+    <t>1 016,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>781,00 zł</t>
+  </si>
+  <si>
+    <t>1 031,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 289,00 zł</t>
+  </si>
+  <si>
+    <t>1 508,00 zł</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>1 784,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>1 022,00 zł</t>
+  </si>
+  <si>
+    <t>1 267,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>637,00 zł</t>
+  </si>
+  <si>
+    <t>892,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>1 095,00 zł</t>
+  </si>
+  <si>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 302,00 zł</t>
+  </si>
+  <si>
+    <t>1 810,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>603,00 zł</t>
+  </si>
+  <si>
+    <t>675,00 zł</t>
+  </si>
+  <si>
+    <t>647,00 zł</t>
+  </si>
+  <si>
+    <t>899,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 072,00 zł</t>
+  </si>
+  <si>
+    <t>1 458,00 zł</t>
+  </si>
+  <si>
+    <t>1 409,00 zł</t>
+  </si>
+  <si>
+    <t>1 705,00 zł</t>
+  </si>
+  <si>
+    <t>546,00 zł</t>
+  </si>
+  <si>
+    <t>622,00 zł</t>
+  </si>
+  <si>
+    <t>luty</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>786,00 zł</t>
-  </si>
-  <si>
-    <t>880,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
+    <t>1 161,00 zł</t>
+  </si>
+  <si>
+    <t>1 567,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 044,00 zł</t>
+  </si>
+  <si>
+    <t>1 190,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 136,00 zł</t>
-  </si>
-  <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>676,00 zł</t>
-  </si>
-  <si>
-    <t>750,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>931,00 zł</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>576,00 zł</t>
-  </si>
-  <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 125,00 zł</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
-    <t>1 664,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 704,00 zł</t>
-  </si>
-  <si>
-    <t>1 223,00 zł</t>
-  </si>
-  <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>706,00 zł</t>
-  </si>
-  <si>
-    <t>904,00 zł</t>
-  </si>
-  <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>1 564,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 026,00 zł</t>
-  </si>
-  <si>
-    <t>1 416,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
+    <t>641,00 zł</t>
+  </si>
+  <si>
+    <t>705,00 zł</t>
+  </si>
+  <si>
+    <t>1 466,00 zł</t>
+  </si>
+  <si>
+    <t>1 627,00 zł</t>
+  </si>
+  <si>
+    <t>1 261,00 zł</t>
+  </si>
+  <si>
+    <t>1 765,00 zł</t>
+  </si>
+  <si>
+    <t>1 477,00 zł</t>
+  </si>
+  <si>
+    <t>1 654,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 178,00 zł</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 468,00 zł</t>
-  </si>
-  <si>
-    <t>1 644,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>986,00 zł</t>
-  </si>
-  <si>
-    <t>1 292,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>1 694,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 546,00 zł</t>
-  </si>
-  <si>
-    <t>949,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
-  </si>
-  <si>
-    <t>1 785,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>1 461,00 zł</t>
-  </si>
-  <si>
-    <t>1 972,00 zł</t>
-  </si>
-  <si>
-    <t>910,00 zł</t>
-  </si>
-  <si>
-    <t>1 101,00 zł</t>
+    <t>1 064,00 zł</t>
+  </si>
+  <si>
+    <t>1 383,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 433,00 zł</t>
-  </si>
-  <si>
-    <t>1 849,00 zł</t>
-  </si>
-  <si>
-    <t>1 303,00 zł</t>
-  </si>
-  <si>
-    <t>1 603,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>1 128,00 zł</t>
-  </si>
-  <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>787,00 zł</t>
-  </si>
-  <si>
-    <t>921,00 zł</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>1 686,00 zł</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 823,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1449,16 +1494,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1467,19 +1512,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1488,19 +1533,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
         <v>5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1509,19 +1554,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1530,19 +1575,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
       <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1551,16 +1596,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>5</v>
@@ -1572,19 +1617,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
         <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1593,19 +1638,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <v>6</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1614,13 +1659,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -1635,16 +1680,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
@@ -1659,13 +1704,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>6</v>
@@ -1677,16 +1722,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1826,7 +1871,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1841,7 +1886,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1856,7 +1901,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1871,7 +1916,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1886,7 +1931,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2003,7 +2048,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2015,7 +2060,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2027,7 +2072,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2039,7 +2084,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2051,7 +2096,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2099,7 +2144,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2111,7 +2156,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2123,7 +2168,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2135,7 +2180,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2147,7 +2192,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2195,7 +2240,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2207,7 +2252,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2219,7 +2264,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2243,7 +2288,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2277,10 +2322,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A20" sqref="A20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2386,22 +2431,22 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6</v>
       </c>
       <c r="J12" s="3">
         <v>4</v>
@@ -2418,25 +2463,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
         <v>6</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2453,22 +2498,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2476,31 +2521,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2508,72 +2553,136 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
         <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2611,210 +2720,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2832,10 +2941,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2851,7 +2960,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2861,75 +2970,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2937,22 +3046,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2960,22 +3069,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2983,22 +3092,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3006,22 +3115,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3029,22 +3138,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3052,22 +3161,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3075,22 +3184,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3098,22 +3207,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3121,22 +3230,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3144,22 +3253,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3167,22 +3276,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3190,22 +3299,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3213,22 +3322,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3236,22 +3345,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3259,22 +3368,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3282,22 +3391,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3305,22 +3414,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3328,22 +3437,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3351,22 +3460,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3374,22 +3483,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3397,22 +3506,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3420,22 +3529,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3443,22 +3552,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>233</v>
+        <v>282</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3466,22 +3575,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3489,22 +3598,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3512,22 +3621,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3535,22 +3644,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3558,22 +3667,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3581,67 +3690,90 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>165</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>169</v>
+      <c r="A48" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_025.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 25 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 25 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>4,80</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>25,00</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,70</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,40</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,20</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>8,40</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>14,02</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,36</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>29,07</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,17</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>29,41</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>4,13</t>
-  </si>
-  <si>
-    <t>30,26</t>
-  </si>
-  <si>
-    <t>13,63</t>
-  </si>
-  <si>
-    <t>16,00</t>
-  </si>
-  <si>
-    <t>4,71</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>3,02</t>
-  </si>
-  <si>
-    <t>27,21</t>
-  </si>
-  <si>
-    <t>18,04</t>
-  </si>
-  <si>
-    <t>19,98</t>
-  </si>
-  <si>
-    <t>16,14</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -418,114 +340,75 @@
     <t>19.02.1998</t>
   </si>
   <si>
-    <t>5 152,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Grabowski</t>
   </si>
   <si>
     <t>02.06.1999</t>
   </si>
   <si>
-    <t>6 911,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kaczmarek</t>
   </si>
   <si>
     <t>18.02.1983</t>
   </si>
   <si>
-    <t>11 559,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Wilk</t>
   </si>
   <si>
     <t>27.09.1980</t>
   </si>
   <si>
-    <t>8 690,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kaczmarek</t>
   </si>
   <si>
     <t>20.09.1985</t>
   </si>
   <si>
-    <t>11 795,00 zł</t>
-  </si>
-  <si>
     <t>27.04.2001</t>
   </si>
   <si>
-    <t>9 848,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Jankowski</t>
   </si>
   <si>
     <t>24.03.1988</t>
   </si>
   <si>
-    <t>9 646,00 zł</t>
-  </si>
-  <si>
     <t>Maja Jaworska</t>
   </si>
   <si>
     <t>08.12.2001</t>
   </si>
   <si>
-    <t>14 636,00 zł</t>
-  </si>
-  <si>
     <t>Julia Sadowska</t>
   </si>
   <si>
     <t>06.11.1996</t>
   </si>
   <si>
-    <t>4 476,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Kaźmierczak</t>
   </si>
   <si>
     <t>12.03.1984</t>
   </si>
   <si>
-    <t>3 023,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Zawadzka</t>
   </si>
   <si>
     <t>19.07.1989</t>
   </si>
   <si>
-    <t>5 260,00 zł</t>
-  </si>
-  <si>
     <t>Maja Rogalska</t>
   </si>
   <si>
     <t>06.01.1978</t>
   </si>
   <si>
-    <t>9 451,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Jaworska</t>
   </si>
   <si>
     <t>10.12.1993</t>
   </si>
   <si>
-    <t>4 093,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -538,9 +421,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -601,12 +481,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>517,00 zł</t>
-  </si>
-  <si>
-    <t>713,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -619,12 +493,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 107,00 zł</t>
-  </si>
-  <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -637,21 +505,9 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>661,00 zł</t>
-  </si>
-  <si>
-    <t>754,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -664,12 +520,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 414,00 zł</t>
-  </si>
-  <si>
-    <t>1 725,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -682,24 +532,12 @@
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 557,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 385,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -709,45 +547,21 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>640,00 zł</t>
-  </si>
-  <si>
-    <t>896,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>879,00 zł</t>
-  </si>
-  <si>
-    <t>1 213,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>806,00 zł</t>
-  </si>
-  <si>
-    <t>1 016,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>781,00 zł</t>
-  </si>
-  <si>
-    <t>1 031,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -757,78 +571,30 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
-    <t>1 508,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
-    <t>1 784,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>1 022,00 zł</t>
-  </si>
-  <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>637,00 zł</t>
-  </si>
-  <si>
-    <t>892,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
-    <t>1 095,00 zł</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 302,00 zł</t>
-  </si>
-  <si>
-    <t>1 810,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>603,00 zł</t>
-  </si>
-  <si>
-    <t>675,00 zł</t>
-  </si>
-  <si>
-    <t>647,00 zł</t>
-  </si>
-  <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
@@ -838,78 +604,24 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 072,00 zł</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 409,00 zł</t>
-  </si>
-  <si>
-    <t>1 705,00 zł</t>
-  </si>
-  <si>
-    <t>546,00 zł</t>
-  </si>
-  <si>
-    <t>622,00 zł</t>
-  </si>
-  <si>
     <t>luty</t>
   </si>
   <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 044,00 zł</t>
-  </si>
-  <si>
-    <t>1 190,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>641,00 zł</t>
-  </si>
-  <si>
-    <t>705,00 zł</t>
-  </si>
-  <si>
-    <t>1 466,00 zł</t>
-  </si>
-  <si>
-    <t>1 627,00 zł</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
-    <t>1 765,00 zł</t>
-  </si>
-  <si>
-    <t>1 477,00 zł</t>
-  </si>
-  <si>
-    <t>1 654,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -919,19 +631,7 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 178,00 zł</t>
-  </si>
-  <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
     <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 064,00 zł</t>
-  </si>
-  <si>
-    <t>1 383,00 zł</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
@@ -956,7 +656,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1013,14 +715,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1031,8 +733,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1063,30 +765,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,7 +1092,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1464,25 +1167,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1505,7 +1208,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1526,7 +1229,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1547,7 +1250,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1568,7 +1271,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1589,7 +1292,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1610,7 +1313,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1631,7 +1334,7 @@
       <c r="F23" s="3">
         <v>4</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1652,7 +1355,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1673,7 +1376,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1694,7 +1397,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1715,7 +1418,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1736,27 +1439,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1790,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1810,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1820,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1850,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.8</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>25</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.7</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1.4</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.2</v>
       </c>
       <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8.4</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1975,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2000,113 +1693,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>14.02</v>
       </c>
       <c r="C15" s="3">
         <v>19</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>19.36</v>
       </c>
       <c r="C16" s="3">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>29.07</v>
       </c>
       <c r="C17" s="3">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>19.17</v>
       </c>
       <c r="C18" s="3">
         <v>20</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>29.41</v>
       </c>
       <c r="C19" s="3">
         <v>15</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2115,94 +1808,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.13</v>
       </c>
       <c r="C24" s="3">
         <v>47</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>30.26</v>
       </c>
       <c r="C25" s="3">
         <v>8</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>13.63</v>
       </c>
       <c r="C26" s="3">
         <v>14</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>16</v>
       </c>
       <c r="C27" s="3">
         <v>45</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4.71</v>
       </c>
       <c r="C28" s="3">
         <v>13</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2211,98 +1904,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.02</v>
       </c>
       <c r="C33" s="3">
         <v>11</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>27.21</v>
       </c>
       <c r="C34" s="3">
         <v>37</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>18.039999999999999</v>
       </c>
       <c r="C35" s="3">
         <v>46</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>19.98</v>
       </c>
       <c r="C36" s="3">
         <v>41</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>16.14</v>
       </c>
       <c r="C37" s="3">
         <v>32</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2325,7 +2018,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A11" sqref="A11:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2345,90 +2038,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
@@ -2451,16 +2144,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2483,16 +2176,16 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2515,16 +2208,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
@@ -2547,16 +2240,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2579,16 +2272,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2611,16 +2304,16 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -2643,40 +2336,40 @@
       <c r="J18" s="3">
         <v>6</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2709,104 +2402,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>129</v>
+      <c r="A10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5152</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6911</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11559</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8690</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11795</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2814,117 +2507,111 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="7">
+        <v>9848</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9646</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14636</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4476</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3023</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5260</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9451</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4093</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>168</v>
+      <c r="A26" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2959,86 +2646,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>173</v>
+      <c r="A1" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>190</v>
+      <c r="A15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3046,22 +2733,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="7">
+        <v>517</v>
+      </c>
+      <c r="E16" s="7">
+        <v>713</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3069,22 +2756,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1107</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1306</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3092,22 +2779,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1521</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3115,22 +2802,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>209</v>
+        <v>156</v>
+      </c>
+      <c r="D19" s="7">
+        <v>661</v>
+      </c>
+      <c r="E19" s="7">
+        <v>754</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3138,22 +2825,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1414</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1725</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3161,22 +2848,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1557</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3184,22 +2871,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>171</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1385</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1731</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3207,22 +2894,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
+      </c>
+      <c r="D23" s="7">
+        <v>640</v>
+      </c>
+      <c r="E23" s="7">
+        <v>896</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3230,22 +2917,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
+      </c>
+      <c r="D24" s="7">
+        <v>879</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1213</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3253,22 +2940,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>237</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="7">
+        <v>806</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1016</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3276,22 +2963,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>241</v>
+        <v>179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>781</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1031</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3299,22 +2986,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>182</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1289</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1508</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3322,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>249</v>
+        <v>183</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1341</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1784</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3345,22 +3032,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>183</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1022</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1267</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3368,22 +3055,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>152</v>
+      </c>
+      <c r="D30" s="7">
+        <v>637</v>
+      </c>
+      <c r="E30" s="7">
+        <v>892</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3391,22 +3078,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>176</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1095</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1434</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3414,22 +3101,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>263</v>
+        <v>189</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1302</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1810</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3437,22 +3124,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>183</v>
+      </c>
+      <c r="D33" s="7">
+        <v>603</v>
+      </c>
+      <c r="E33" s="7">
+        <v>675</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3460,22 +3147,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="7">
+        <v>647</v>
+      </c>
+      <c r="E34" s="7">
+        <v>899</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3483,22 +3170,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>193</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1072</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1458</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3506,22 +3193,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>275</v>
+        <v>183</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1409</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1705</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3529,22 +3216,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>277</v>
+        <v>174</v>
+      </c>
+      <c r="D37" s="7">
+        <v>546</v>
+      </c>
+      <c r="E37" s="7">
+        <v>622</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3552,22 +3239,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>281</v>
+        <v>195</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1161</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1567</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3575,22 +3262,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1044</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1190</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3598,22 +3285,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>289</v>
+        <v>199</v>
+      </c>
+      <c r="D40" s="7">
+        <v>641</v>
+      </c>
+      <c r="E40" s="7">
+        <v>705</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3621,22 +3308,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>156</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1466</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1627</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3644,22 +3331,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>169</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1261</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1765</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3667,22 +3354,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>295</v>
+        <v>169</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1477</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1654</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3690,22 +3377,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>300</v>
+        <v>202</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1178</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1296</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3713,68 +3400,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>303</v>
+        <v>203</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1064</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1383</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>168</v>
+      <c r="A48" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>307</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>309</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_025.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_025.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>ZESTAW ZADAŃ NR 25 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Filip Wojciechowski</t>
-  </si>
-  <si>
-    <t>Hanna Król</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>Anna Maciejewska</t>
-  </si>
-  <si>
-    <t>Hanna Urbaniak</t>
+    <t>Wojciech Szymański</t>
+  </si>
+  <si>
+    <t>Jakub Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>Maja Bednarska</t>
+  </si>
+  <si>
+    <t>Wojciech Wójcik</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 25 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -148,21 +152,21 @@
     <t>Pędzelek</t>
   </si>
   <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,28 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
   </si>
   <si>
     <t>Zuzanna</t>
   </si>
   <si>
-    <t>Król</t>
-  </si>
-  <si>
-    <t>Maja</t>
+    <t>Kubiak</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
   </si>
   <si>
     <t>Piekarska</t>
@@ -289,16 +311,7 @@
     <t>Lena</t>
   </si>
   <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
+    <t>Wójcik</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -334,94 +347,124 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>19.02.1998</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
-  </si>
-  <si>
-    <t>02.06.1999</t>
-  </si>
-  <si>
-    <t>Adam Kaczmarek</t>
-  </si>
-  <si>
-    <t>18.02.1983</t>
-  </si>
-  <si>
-    <t>Hanna Wilk</t>
-  </si>
-  <si>
-    <t>27.09.1980</t>
-  </si>
-  <si>
-    <t>Jan Kaczmarek</t>
-  </si>
-  <si>
-    <t>20.09.1985</t>
-  </si>
-  <si>
-    <t>27.04.2001</t>
-  </si>
-  <si>
-    <t>Jakub Jankowski</t>
-  </si>
-  <si>
-    <t>24.03.1988</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>08.12.2001</t>
+    <t>Jan Kamiński</t>
+  </si>
+  <si>
+    <t>Julia Sikorska</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Antoni Nowak</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>Natalia Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Olszewska</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>Kacper Kowalski</t>
+  </si>
+  <si>
+    <t>Adam Wiśniewski</t>
+  </si>
+  <si>
+    <t>Anna Czarnecka</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Król</t>
+  </si>
+  <si>
+    <t>Wojciech Mazur</t>
+  </si>
+  <si>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Jan Dąbrowski</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>Maja Lis</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>Natalia Sikorska</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>Szymon Kowalczyk</t>
   </si>
   <si>
     <t>Julia Sadowska</t>
   </si>
   <si>
-    <t>06.11.1996</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>12.03.1984</t>
-  </si>
-  <si>
-    <t>Hanna Zawadzka</t>
-  </si>
-  <si>
-    <t>19.07.1989</t>
-  </si>
-  <si>
-    <t>Maja Rogalska</t>
-  </si>
-  <si>
-    <t>06.01.1978</t>
-  </si>
-  <si>
-    <t>Oliwia Jaworska</t>
-  </si>
-  <si>
-    <t>10.12.1993</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>Filip Nowak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -475,166 +518,160 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
   </si>
   <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
     <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -706,7 +743,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,12 +766,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -765,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -776,13 +807,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1089,7 +1119,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1194,19 +1224,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1218,16 +1248,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1236,19 +1266,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
       <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1257,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
         <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1278,19 +1308,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1299,19 +1329,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
       <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1320,16 +1350,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
         <v>4</v>
@@ -1341,19 +1371,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="3">
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
         <v>2</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1362,19 +1392,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1383,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1407,16 +1437,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1425,19 +1455,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1450,6 +1480,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1483,7 +1519,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1503,7 +1539,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1513,29 +1549,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1543,99 +1579,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.6</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5.9</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.7</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5.7</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.2</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>8.4</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>12.5</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1652,10 +1688,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1668,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1693,27 +1729,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1721,85 +1757,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>14.02</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>23.67</v>
       </c>
       <c r="C15" s="3">
-        <v>19</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>19.36</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20.99</v>
       </c>
       <c r="C16" s="3">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>29.07</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>22.21</v>
       </c>
       <c r="C17" s="3">
-        <v>9</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>19.17</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>13.76</v>
       </c>
       <c r="C18" s="3">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>29.41</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16.69</v>
       </c>
       <c r="C19" s="3">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1808,8 +1844,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1817,85 +1853,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4.13</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17.46</v>
       </c>
       <c r="C24" s="3">
-        <v>47</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>30.26</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>25.11</v>
       </c>
       <c r="C25" s="3">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>13.63</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24.62</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4.34</v>
       </c>
       <c r="C27" s="3">
-        <v>45</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4.71</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>16.18</v>
       </c>
       <c r="C28" s="3">
-        <v>13</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1904,8 +1940,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1913,89 +1949,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3.02</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>24.98</v>
       </c>
       <c r="C33" s="3">
-        <v>11</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>27.21</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>14.54</v>
       </c>
       <c r="C34" s="3">
-        <v>37</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>18.039999999999999</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>11.82</v>
       </c>
       <c r="C35" s="3">
-        <v>46</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>19.98</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.32</v>
       </c>
       <c r="C36" s="3">
-        <v>41</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>16.14</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6.97</v>
       </c>
       <c r="C37" s="3">
-        <v>32</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2015,10 +2059,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L20"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2038,111 +2082,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2150,31 +2194,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2182,31 +2226,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2214,13 +2258,13 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -2229,16 +2273,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2246,28 +2290,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -2278,31 +2322,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2310,13 +2354,13 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
@@ -2325,39 +2369,55 @@
         <v>2</v>
       </c>
       <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
       </c>
       <c r="I18" s="3">
         <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2368,14 +2428,30 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2388,10 +2464,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2402,216 +2478,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>95</v>
+      <c r="A1" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5152</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4270</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6911</v>
+        <v>109</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11559</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C13" s="8">
+        <v>13652</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="7">
-        <v>8690</v>
+      <c r="B14" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C14" s="8">
+        <v>12205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11795</v>
+      <c r="B15" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5985</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="7">
-        <v>9848</v>
+        <v>113</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9637</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9646</v>
+        <v>114</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8325</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14636</v>
+        <v>115</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8109</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4476</v>
+        <v>116</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5399</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3023</v>
+        <v>117</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C20" s="8">
+        <v>12879</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5260</v>
+        <v>118</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8783</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>9451</v>
+        <v>119</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3138</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C25" s="8">
+        <v>7800</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="A28" s="16" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2628,10 +2726,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="3">
+        <v>173</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3">
+        <v>153</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="3">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3">
+        <v>196</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3">
+        <v>145</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3">
+        <v>146</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="3">
+        <v>146</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3">
+        <v>95</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3">
+        <v>127</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3">
+        <v>186</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="3">
+        <v>187</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="3">
+        <v>126</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="3">
+        <v>172</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3">
+        <v>185</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="3">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="3">
+        <v>181</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="3">
+        <v>197</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2646,86 +2964,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>133</v>
+      <c r="A1" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2733,22 +3051,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="7">
-        <v>517</v>
-      </c>
-      <c r="E16" s="7">
-        <v>713</v>
+        <v>166</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1440</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1872</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2756,22 +3074,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1107</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1306</v>
+        <v>170</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1419</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1816</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2779,22 +3097,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1300</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1521</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="8">
+        <v>838</v>
+      </c>
+      <c r="E18" s="8">
+        <v>972</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2802,22 +3120,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="7">
-        <v>661</v>
-      </c>
-      <c r="E19" s="7">
-        <v>754</v>
+        <v>176</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1019</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1253</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2825,22 +3143,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1414</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1725</v>
+        <v>179</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1052</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1304</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2848,22 +3166,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1557</v>
+        <v>182</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1465</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2022</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2871,22 +3189,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1385</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1731</v>
+        <v>186</v>
+      </c>
+      <c r="D22" s="8">
+        <v>977</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1251</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2894,22 +3212,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="7">
-        <v>640</v>
-      </c>
-      <c r="E23" s="7">
-        <v>896</v>
+        <v>188</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1283</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1411</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2917,22 +3235,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1134</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1429</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="7">
-        <v>879</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1213</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2940,22 +3258,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="7">
-        <v>806</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1016</v>
+        <v>192</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1206</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1399</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2963,22 +3281,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="7">
-        <v>781</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1031</v>
+        <v>194</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1096</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1491</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2986,22 +3304,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1289</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1508</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="8">
+        <v>547</v>
+      </c>
+      <c r="E27" s="8">
+        <v>755</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3009,22 +3327,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1341</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1784</v>
+        <v>199</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1060</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1283</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3032,22 +3350,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1022</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1267</v>
+        <v>176</v>
+      </c>
+      <c r="D29" s="8">
+        <v>843</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1087</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3055,22 +3373,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="7">
-        <v>637</v>
-      </c>
-      <c r="E30" s="7">
-        <v>892</v>
+        <v>202</v>
+      </c>
+      <c r="D30" s="8">
+        <v>805</v>
+      </c>
+      <c r="E30" s="8">
+        <v>934</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3078,22 +3396,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1095</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1434</v>
+        <v>205</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1273</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1464</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3101,22 +3419,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1208</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1389</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="7">
-        <v>1302</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1810</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3124,22 +3442,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="7">
-        <v>603</v>
-      </c>
-      <c r="E33" s="7">
-        <v>675</v>
+        <v>182</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1474</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1666</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3147,22 +3465,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="7">
-        <v>647</v>
-      </c>
-      <c r="E34" s="7">
-        <v>899</v>
+        <v>182</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1395</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1869</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3170,22 +3488,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1072</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1458</v>
+        <v>209</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1325</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1828</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3193,22 +3511,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1409</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1705</v>
+        <v>211</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1259</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1637</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3216,22 +3534,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="7">
-        <v>546</v>
-      </c>
-      <c r="E37" s="7">
-        <v>622</v>
+        <v>211</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1179</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1415</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3239,22 +3557,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1161</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1567</v>
+        <v>213</v>
+      </c>
+      <c r="D38" s="8">
+        <v>722</v>
+      </c>
+      <c r="E38" s="8">
+        <v>816</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3262,22 +3580,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1044</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1190</v>
+        <v>192</v>
+      </c>
+      <c r="D39" s="8">
+        <v>639</v>
+      </c>
+      <c r="E39" s="8">
+        <v>831</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3285,22 +3603,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="7">
-        <v>641</v>
-      </c>
-      <c r="E40" s="7">
-        <v>705</v>
+        <v>182</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1265</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1480</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3308,22 +3626,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1434</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1965</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1466</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1627</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3331,22 +3649,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1261</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1765</v>
+        <v>215</v>
+      </c>
+      <c r="D42" s="8">
+        <v>977</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1163</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3354,104 +3672,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1477</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1654</v>
+        <v>215</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1117</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1508</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1178</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1296</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1064</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1383</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>208</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>209</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
